--- a/code/Price_Data.xlsx
+++ b/code/Price_Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72445\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Quant\Reference\Black-Litterman-Model\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64862720-3E42-4B93-AF4A-6CA35E3AEAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F023414C-00B3-4F72-B1DD-F001809CAB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Monthly" sheetId="2" r:id="rId3"/>
+    <sheet name="Monthly" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -887,21 +887,21 @@
   <dimension ref="A1:O529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:N1"/>
+      <selection pane="bottomRight" activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="14.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="2" hidden="1"/>
+    <col min="1" max="1" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="14.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -945,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>40088</v>
       </c>
@@ -989,7 +989,7 @@
         <v>48.489715331422111</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>40095</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>50.448822183953283</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>40102</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>53.25274834835664</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>40109</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>53.58047997796222</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>40116</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>52.196724208516414</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>40123</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>52.859470392829934</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>40130</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>53.086554923025638</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>40137</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54.485690012069085</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>40144</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>54.844630427582857</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>40151</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>54.390460922238908</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>40158</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>53.350266248709218</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>40165</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>49.965970902436574</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>40172</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>50.295610059541055</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>40179</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>49.951320273231936</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>40186</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>50.925587115340726</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>40193</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>50.625249216645535</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>40200</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>48.420329521346687</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>40207</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>47.19700198275897</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>40214</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>47.468038623044862</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>40221</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>47.777709258111614</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>40228</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>48.566631309132909</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>40235</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>47.92517132372307</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>40242</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>49.009017505967272</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>40249</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>49.252329914226173</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>40256</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>49.429284392959921</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>40263</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>49.060629228931283</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>40270</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>49.849551279952564</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>40277</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>50.697458157218442</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>40284</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>50.085490584930902</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>40291</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>51.051367114685924</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>40298</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>49.96752093244173</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>40305</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>46.966667897248612</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>40312</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>47.211396166782585</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>40319</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>45.192292431347859</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>40326</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>44.880519060435141</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>40333</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>44.186452151379456</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>40340</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>45.919763630144196</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>40347</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>46.840237391886497</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>40354</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>43.870967192717778</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40361</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>41.992903791743565</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40368</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>43.633425576784283</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>40375</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>43.024725185954694</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>40382</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>44.331204073588928</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>40389</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>44.301511371597243</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>40396</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>46.001418560621332</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>40403</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>44.790470882666305</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>40410</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>44.027889004844248</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>40417</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>44.708231660548243</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>40424</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>45.844628184361511</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>40431</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>45.754912669323623</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>40438</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>45.440908366691012</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>40445</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>46.166108779913948</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>40452</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>46.756735920580056</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>40459</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>48.132373817827691</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>40466</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>48.737953544333443</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>40473</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>49.597727230113222</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>40480</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>49.70987162391058</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>40487</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>52.334050438768848</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>40494</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>53.408386143109745</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>40501</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>53.069834603957766</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>40508</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>52.084273456648653</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>40515</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>53.558853493843962</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>40522</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>54.303666879978337</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>40529</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>54.296143512441617</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>40536</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>55.07105036872283</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>40543</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>55.010863428429147</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>40550</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>56.869135209996706</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>40557</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>58.561892905756629</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>40564</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>59.419556804941656</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>40571</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>59.427080172478362</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>40578</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>62.654604845727285</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>40585</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>62.636901834438213</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>40592</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>63.907488589833726</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>40599</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>64.542781967531482</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>40606</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>64.346143541101227</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>40613</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>62.107490686356755</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>40620</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>61.146987603408952</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>40627</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>63.24194314653132</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>40634</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>64.043622885054674</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>40641</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>65.004125968002469</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>40648</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>63.748665245409292</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>40655</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>65.314209640450187</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>40662</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>66.539418297438715</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>40669</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>62.538582621223085</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>40676</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>61.508999035579976</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>40683</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>62.041412777695783</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>40690</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>62.847639301471162</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>40697</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>61.744782264231269</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>40704</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>60.679954779999633</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>40711</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>60.101905574273886</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>40718</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>58.398181599503282</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>40725</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>62.37607284416859</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>40732</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>62.687915178836427</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>40739</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>63.129057993732381</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>40746</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>64.817570147299691</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>40753</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>60.687560690601295</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>40760</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>56.907423121578994</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>40767</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>55.124202473605713</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>40774</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>53.43985184246776</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>40781</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>55.614195384482208</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>40788</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>55.231388422859951</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>40795</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>54.366244689593643</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>40802</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>57.076517977879249</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>40809</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>53.064701020077948</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>40816</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>55.606539245249763</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>40823</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>56.318560193867171</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>40830</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>59.802103544629752</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>40837</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>61.348643669583687</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>40844</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>62.382222465963807</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>40851</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>60.116005253160004</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>40858</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>61.398411210549689</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>40865</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>59.996691335948583</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>40872</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>56.915988314847247</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>40879</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>61.452323513418968</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>40886</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>62.646095934095733</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>40893</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>61.737288542870836</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>40900</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>65.63437786456403</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>40907</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>65.280097017137379</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>40914</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>65.557360289036495</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>40921</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>65.372518107770418</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>40928</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>67.382676829039042</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>40935</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>66.104185075281976</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>40942</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>65.403325137981426</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>40949</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>64.893986184904193</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>40956</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>66.303378247631244</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>40963</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>67.635331186032616</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>40970</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>66.853196030343426</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>40977</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>65.281181806532501</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>40984</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>66.93837906710165</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>40991</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>66.249170860603272</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>40998</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>67.162952527646084</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>41005</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>65.683865253025942</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>41012</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>64.235753628136081</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>41019</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>66.055573049789118</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>41026</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>66.659598219529272</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>41033</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>65.490267442211788</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>41040</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>64.795235491123137</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>41047</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>63.524282015184149</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>41054</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>63.9999149110877</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>41061</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>60.756254506237255</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>41068</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>63.033054598103433</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>41075</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>64.888802618186133</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>41082</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>64.023306692853453</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>41089</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>66.721158856503095</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>41096</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>66.120769791182227</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>41103</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>66.643186250617276</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>41110</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>67.017454758869249</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>41117</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>68.187043847156673</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>41124</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>68.265016453042492</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>41131</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>69.407116928179903</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>41138</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>69.375725197321387</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>41145</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>69.101047552309367</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>41152</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>68.512452598712173</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>41159</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>70.568610969945013</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>41166</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>72.436418956026728</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>41173</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>72.138197512870832</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>41180</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>71.769344675283264</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>41187</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>72.632617273892464</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>41194</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>71.439731501268838</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>41201</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>72.318699965307303</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" s="5">
         <v>41208</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>71.117966259969052</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" s="5">
         <v>41215</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>70.843288614957018</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" s="5">
         <v>41222</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>68.870333467142913</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" s="5">
         <v>41229</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>68.270156269172176</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" s="5">
         <v>41236</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>70.354982325281085</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" s="5">
         <v>41243</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>69.604760827817657</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" s="5">
         <v>41250</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>69.968025973957836</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" s="5">
         <v>41257</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>69.557378417451531</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" s="5">
         <v>41264</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>68.886127603931627</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" s="5">
         <v>41271</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>67.204052035934666</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" s="5">
         <v>41278</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>70.252320436154506</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" s="5">
         <v>41285</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>70.765629881787376</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" s="5">
         <v>41292</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>71.705381020715251</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" s="5">
         <v>41299</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>72.43980838138998</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" s="5">
         <v>41306</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>71.105203822744514</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" s="5">
         <v>41313</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>70.422978910513351</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" s="5">
         <v>41320</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>70.224290898690427</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>41327</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>70.891882618415423</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" s="5">
         <v>41334</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>71.074675589292511</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" s="5">
         <v>41341</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>70.709089647538335</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" s="5">
         <v>41348</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>71.026990466455004</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" s="5">
         <v>41355</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>70.963410302671676</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" s="5">
         <v>41362</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>71.615106981450822</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" s="5">
         <v>41369</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>70.740879729430006</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" s="5">
         <v>41376</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>70.72498468848417</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" s="5">
         <v>41383</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>69.501066535655028</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" s="5">
         <v>41390</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>69.938180161665443</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" s="5">
         <v>41397</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>71.543579297194569</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" s="5">
         <v>41404</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>72.134528797706224</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" s="5">
         <v>41411</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>73.430933686238333</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" s="5">
         <v>41418</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>73.246876202064016</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" s="5">
         <v>41425</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>72.398611274999794</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" s="5">
         <v>41432</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>73.182856207568605</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" s="5">
         <v>41439</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>72.486638767430989</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" s="5">
         <v>41446</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>71.60636384311907</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" s="5">
         <v>41453</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>72.302581283256671</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" s="5">
         <v>41460</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>73.278886199311714</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" s="5">
         <v>41467</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>74.743343573394284</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" s="5">
         <v>41474</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>76.159785951605286</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" s="5">
         <v>41481</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>75.85569097775209</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" s="5">
         <v>41488</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>73.582981173164939</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" s="5">
         <v>41495</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>73.100451615153375</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" s="5">
         <v>41502</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>70.836207026985591</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" s="5">
         <v>41509</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>70.521952440015681</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" s="5">
         <v>41516</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>70.231871282812691</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" s="5">
         <v>41523</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>70.304391572113445</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" s="5">
         <v>41530</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>71.231039713178546</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" s="5">
         <v>41537</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>71.440542771158476</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" s="5">
         <v>41544</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>70.022368224832761</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" s="5">
         <v>41551</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>69.55501524933905</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" s="5">
         <v>41558</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>70.062657274444291</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
         <v>41565</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>70.5461258697826</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" s="5">
         <v>41572</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>70.884553886519427</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" s="5">
         <v>41579</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>72.375248722145898</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" s="5">
         <v>41586</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>75.228480301572901</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" s="5">
         <v>41593</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>77.289090028371064</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" s="5">
         <v>41600</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>77.078161473659449</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
         <v>41607</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>75.836928055548739</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" s="5">
         <v>41614</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>77.597370223718841</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
         <v>41621</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>77.321540575249784</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" s="5">
         <v>41628</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>80.055499149781227</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" s="5">
         <v>41635</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>82.351375341450066</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" s="5">
         <v>41642</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>80.728847997514492</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" s="5">
         <v>41649</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>81.548224306201945</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" s="5">
         <v>41656</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>80.444905712325763</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" s="5">
         <v>41663</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>76.948359286144594</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" s="5">
         <v>41670</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>74.76606000855125</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" s="5">
         <v>41677</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>74.004728018883867</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" s="5">
         <v>41684</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>76.888771846513137</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" s="5">
         <v>41691</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>77.640420662779135</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" s="5">
         <v>41698</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>78.653512545572411</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" s="5">
         <v>41705</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>77.607740279463215</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" s="5">
         <v>41712</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>76.365885713458539</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" s="5">
         <v>41719</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>77.052173763092711</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" s="5">
         <v>41726</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>79.821836249116288</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" s="5">
         <v>41733</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>79.544052990931036</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" s="5">
         <v>41740</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>79.021166857876423</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" s="5">
         <v>41747</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>82.044102314598334</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" s="5">
         <v>41754</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>82.035932218769361</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" s="5">
         <v>41761</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>83.343147551405863</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" s="5">
         <v>41768</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>83.85963804569468</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" s="5">
         <v>41775</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>82.864344646623664</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="5">
         <v>41782</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>83.341427432955214</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="5">
         <v>41789</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>82.691607775710509</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" s="5">
         <v>41796</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>83.571743260839426</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" s="5">
         <v>41803</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>84.435427615405189</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" s="5">
         <v>41810</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>85.406044318631473</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" s="5">
         <v>41817</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>83.250946214857862</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" s="5">
         <v>41824</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>84.386074223715724</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" s="5">
         <v>41831</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>83.686901174781525</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A252" s="5">
         <v>41838</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>84.501232137657823</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A253" s="5">
         <v>41845</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>84.871382575328866</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A254" s="5">
         <v>41852</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>81.268584981997392</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A255" s="5">
         <v>41859</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>82.041788118465789</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A256" s="5">
         <v>41866</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>82.025222338792872</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A257" s="5">
         <v>41873</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>81.586230438968983</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A258" s="5">
         <v>41880</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>82.381385578272628</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A259" s="5">
         <v>41887</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>82.215728257584374</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A260" s="5">
         <v>41894</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>79.333290877608619</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A261" s="5">
         <v>41901</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>80.443194926219974</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A262" s="5">
         <v>41908</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>79.04339056640417</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A263" s="5">
         <v>41915</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>77.79267779520778</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A264" s="5">
         <v>41922</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>75.871052875223938</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A265" s="5">
         <v>41929</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>75.548021099881822</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A266" s="5">
         <v>41936</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>78.264801159169323</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A267" s="5">
         <v>41943</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>80.103597418809031</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A268" s="5">
         <v>41950</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>80.581815605456512</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A269" s="5">
         <v>41957</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>79.330415632289686</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A270" s="5">
         <v>41964</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>80.76535426818765</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A271" s="5">
         <v>41971</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>75.534502380350276</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A272" s="5">
         <v>41978</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>78.270896988341747</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A273" s="5">
         <v>41985</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>72.247491784165376</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A274" s="5">
         <v>41992</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>78.120728991561734</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A275" s="5">
         <v>41999</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>77.761994332587236</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A276" s="5">
         <v>42006</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>77.44497300605164</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A277" s="5">
         <v>42013</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>76.835958352443782</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A278" s="5">
         <v>42020</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>76.018377036641454</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A279" s="5">
         <v>42027</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>75.826495707422538</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A280" s="5">
         <v>42034</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>72.931590436163248</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A281" s="5">
         <v>42041</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>76.909978332366506</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A282" s="5">
         <v>42048</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>78.481799747465161</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A283" s="5">
         <v>42055</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>75.581915318539856</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A284" s="5">
         <v>42062</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>74.42196154696974</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A285" s="5">
         <v>42069</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>71.975972072137097</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A286" s="5">
         <v>42076</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>70.496610740279564</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A287" s="5">
         <v>42083</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>71.05977670183897</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A288" s="5">
         <v>42090</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>70.252852339007575</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A289" s="5">
         <v>42097</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>70.858045611131118</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A290" s="5">
         <v>42104</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>71.917133837347308</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A291" s="5">
         <v>42111</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>73.068682146804605</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A292" s="5">
         <v>42118</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>73.102303995255909</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A293" s="5">
         <v>42125</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>74.682530872467368</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A294" s="5">
         <v>42132</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>74.800207342046946</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A295" s="5">
         <v>42139</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>74.028981011116713</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A296" s="5">
         <v>42146</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>73.325557379299582</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A297" s="5">
         <v>42153</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>72.206859555204872</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A298" s="5">
         <v>42160</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>71.427161071744905</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A299" s="5">
         <v>42167</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>71.206811500332307</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A300" s="5">
         <v>42174</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>72.215334538720725</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A301" s="5">
         <v>42181</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>71.071211764078399</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A302" s="5">
         <v>42188</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>70.461012950935825</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A303" s="5">
         <v>42195</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>69.681314467475872</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A304" s="5">
         <v>42202</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>70.011838824594761</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A305" s="5">
         <v>42209</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>67.749018225857711</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A306" s="5">
         <v>42216</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>67.130344429199255</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A307" s="5">
         <v>42223</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>65.113298352422419</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A308" s="5">
         <v>42230</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>67.031340221289071</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A309" s="5">
         <v>42237</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>61.702023611046208</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A310" s="5">
         <v>42244</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>64.216982011385539</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A311" s="5">
         <v>42251</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>61.984314860063883</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A312" s="5">
         <v>42258</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>62.181063306348939</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A313" s="5">
         <v>42265</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>62.17250902607568</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A314" s="5">
         <v>42272</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>62.642994441105145</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A315" s="5">
         <v>42279</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>64.909878713519845</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A316" s="5">
         <v>42286</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>67.80122544588275</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A317" s="5">
         <v>42293</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>70.55570369387344</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A318" s="5">
         <v>42300</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>70.983417707536603</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A319" s="5">
         <v>42307</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>70.778114980978273</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A320" s="5">
         <v>42314</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>72.258005468252776</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A321" s="5">
         <v>42321</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>67.391338552231346</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A322" s="5">
         <v>42328</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>68.849614636140075</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A323" s="5">
         <v>42335</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>70.092169405861114</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A324" s="5">
         <v>42342</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>68.047131347361898</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A325" s="5">
         <v>42349</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>64.146889986848649</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A326" s="5">
         <v>42356</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>66.683772641695768</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A327" s="5">
         <v>42363</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>68.452687418034742</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A328" s="5">
         <v>42370</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>67.261905763718744</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A329" s="5">
         <v>42377</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>64.448899826711397</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A330" s="5">
         <v>42384</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>66.942638218720973</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A331" s="5">
         <v>42391</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>66.071124109402746</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A332" s="5">
         <v>42398</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>67.175617238043671</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A333" s="5">
         <v>42405</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>69.099851360597782</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A334" s="5">
         <v>42412</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>70.554198840150619</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A335" s="5">
         <v>42419</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>71.834152836140021</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A336" s="5">
         <v>42426</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>71.181115083084194</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A337" s="5">
         <v>42433</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>71.651302265284386</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A338" s="5">
         <v>42440</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>71.564230564876937</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A339" s="5">
         <v>42447</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>73.314371743066545</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A340" s="5">
         <v>42454</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>73.122814002170173</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A341" s="5">
         <v>42461</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>72.23468265801425</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A342" s="5">
         <v>42468</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>72.452361909032845</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A343" s="5">
         <v>42475</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>73.984823836203844</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A344" s="5">
         <v>42482</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>76.213859366634367</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A345" s="5">
         <v>42489</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>76.97138316017913</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A346" s="5">
         <v>42496</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>77.067162030627316</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A347" s="5">
         <v>42503</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>77.846558662375557</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A348" s="5">
         <v>42510</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>78.794836164691887</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A349" s="5">
         <v>42517</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>79.031905540270984</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A350" s="5">
         <v>42524</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>77.591928592309145</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A351" s="5">
         <v>42531</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>79.005564498539968</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A352" s="5">
         <v>42538</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>79.655310194571527</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A353" s="5">
         <v>42545</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>78.487524011163458</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A354" s="5">
         <v>42552</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>82.394778534596469</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A355" s="5">
         <v>42559</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>82.131368117286385</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A356" s="5">
         <v>42566</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>83.518662981786193</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A357" s="5">
         <v>42573</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>82.544044437738862</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A358" s="5">
         <v>42580</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>78.101188732441983</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A359" s="5">
         <v>42587</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>76.880720465571898</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A360" s="5">
         <v>42594</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>77.793130977410101</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A361" s="5">
         <v>42601</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>77.748854864161714</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A362" s="5">
         <v>42608</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>77.279528063728847</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A363" s="5">
         <v>42615</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>77.412356403474007</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A364" s="5">
         <v>42622</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>76.898753489792753</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A365" s="5">
         <v>42629</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>74.4104359252336</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A366" s="5">
         <v>42636</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>73.896833011552346</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A367" s="5">
         <v>42643</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>77.288383286378533</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A368" s="5">
         <v>42650</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>76.81020126329598</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A369" s="5">
         <v>42657</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>76.633096810302462</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A370" s="5">
         <v>42664</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>76.703938591499877</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A371" s="5">
         <v>42671</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>75.074577623959357</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A372" s="5">
         <v>42678</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>74.003095683348462</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A373" s="5">
         <v>42685</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>76.534437235609062</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A374" s="5">
         <v>42692</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>76.186025533474279</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A375" s="5">
         <v>42699</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>77.829814076879444</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A376" s="5">
         <v>42706</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>77.758345009774871</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A377" s="5">
         <v>42713</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>79.509337153836896</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A378" s="5">
         <v>42720</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>81.456869232436503</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A379" s="5">
         <v>42727</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>81.036988463197133</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A380" s="5">
         <v>42734</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>80.634974960733913</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A381" s="5">
         <v>42741</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>79.062655484433321</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A382" s="5">
         <v>42748</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>77.141924305997932</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A383" s="5">
         <v>42755</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>76.730977170146645</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A384" s="5">
         <v>42762</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>76.39149910139993</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A385" s="5">
         <v>42769</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>74.631573323949823</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A386" s="5">
         <v>42776</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>74.394453245156299</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A387" s="5">
         <v>42783</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>73.70928862486646</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A388" s="5">
         <v>42790</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>73.096246596186049</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A389" s="5">
         <v>42797</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>74.340361301449207</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A390" s="5">
         <v>42804</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>73.574058765598721</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A391" s="5">
         <v>42811</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>73.92565639969483</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A392" s="5">
         <v>42818</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>73.231476455453787</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A393" s="5">
         <v>42825</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>73.934671723646019</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A394" s="5">
         <v>42832</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>74.610821019984684</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A395" s="5">
         <v>42839</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>73.646181357208178</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A396" s="5">
         <v>42846</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>72.74464896208994</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A397" s="5">
         <v>42853</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>73.61012006140345</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A398" s="5">
         <v>42860</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>73.94368704759718</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A399" s="5">
         <v>42867</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>75.124277100304639</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A400" s="5">
         <v>42874</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>74.560048732016469</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A401" s="5">
         <v>42881</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>74.214231345001124</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A402" s="5">
         <v>42888</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>72.348637546628936</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A403" s="5">
         <v>42895</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>74.742057883077152</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A404" s="5">
         <v>42902</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>75.979720110289932</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A405" s="5">
         <v>42909</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>74.268834090319345</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A406" s="5">
         <v>42916</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>73.467993825652258</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A407" s="5">
         <v>42923</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>73.003870490447454</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A408" s="5">
         <v>42930</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>73.968518991069175</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A409" s="5">
         <v>42937</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>72.91286591491712</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A410" s="5">
         <v>42944</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>72.439642122159285</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A411" s="5">
         <v>42951</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>72.994770032894422</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A412" s="5">
         <v>42958</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>71.864564310358077</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A413" s="5">
         <v>42965</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>70.421943597312918</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A414" s="5">
         <v>42972</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>70.495452933009474</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A415" s="5">
         <v>42979</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>70.357622928578408</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A416" s="5">
         <v>42986</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>72.425072995044403</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A417" s="5">
         <v>42993</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>73.573656365303293</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A418" s="5">
         <v>43000</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>73.435826360872241</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A419" s="5">
         <v>43007</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>75.328691755058884</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A420" s="5">
         <v>43014</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>75.080597747082962</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A421" s="5">
         <v>43021</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>75.723804434427933</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A422" s="5">
         <v>43028</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>76.367011121772919</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A423" s="5">
         <v>43035</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>76.91833113949717</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A424" s="5">
         <v>43042</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>76.431331790507414</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A425" s="5">
         <v>43049</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>76.916120278244946</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A426" s="5">
         <v>43056</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>74.412219569886346</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A427" s="5">
         <v>43063</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>75.506516916502335</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A428" s="5">
         <v>43070</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>77.398353007262145</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A429" s="5">
         <v>43077</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>76.65645650108182</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A430" s="5">
         <v>43084</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>76.999583635190234</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A431" s="5">
         <v>43091</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>77.871312029952108</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A432" s="5">
         <v>43098</v>
       </c>
@@ -19909,7 +19909,7 @@
         <v>77.56527972115272</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A433" s="5">
         <v>43105</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>80.449402388928732</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A434" s="5">
         <v>43112</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>81.16347777612728</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A435" s="5">
         <v>43119</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>80.820350642018894</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A436" s="5">
         <v>43126</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>82.53598631256088</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A437" s="5">
         <v>43133</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>78.390639584278333</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A438" s="5">
         <v>43140</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>70.994770286459072</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A439" s="5">
         <v>43147</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>71.706779067373688</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A440" s="5">
         <v>43154</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>72.634264189880867</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A441" s="5">
         <v>43161</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>70.779293944866495</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A442" s="5">
         <v>43168</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>69.851808822359317</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A443" s="5">
         <v>43175</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>70.376446871454291</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A444" s="5">
         <v>43182</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>68.287263211665376</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A445" s="5">
         <v>43189</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>69.89865150531422</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A446" s="5">
         <v>43196</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>70.142233456679747</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A447" s="5">
         <v>43203</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>72.924688824201297</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A448" s="5">
         <v>43210</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>74.01143906875518</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A449" s="5">
         <v>43217</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>72.877846141246394</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A450" s="5">
         <v>43224</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>72.044046384649036</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A451" s="5">
         <v>43231</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>76.919296022930794</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A452" s="5">
         <v>43238</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>76.93822301506242</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A453" s="5">
         <v>43245</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>74.487177534016766</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A454" s="5">
         <v>43252</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>77.439788306550525</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A455" s="5">
         <v>43259</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>79.114827110199485</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A456" s="5">
         <v>43266</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>76.332559266850367</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A457" s="5">
         <v>43273</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>77.013930983588921</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A458" s="5">
         <v>43280</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>78.291502952473735</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A459" s="5">
         <v>43287</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>77.912963109841201</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A460" s="5">
         <v>43294</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>78.840385724290911</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A461" s="5">
         <v>43301</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>77.03285797572056</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A462" s="5">
         <v>43308</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>77.524959771142846</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A463" s="5">
         <v>43315</v>
       </c>
@@ -21273,7 +21273,7 @@
         <v>75.897238447822957</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A464" s="5">
         <v>43322</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>75.934310182233318</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A465" s="5">
         <v>43329</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>74.825221793774617</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A466" s="5">
         <v>43336</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>76.125532318174479</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A467" s="5">
         <v>43343</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>76.651393192012662</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A468" s="5">
         <v>43350</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>78.238536920324265</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A469" s="5">
         <v>43357</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>79.280697561203567</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A470" s="5">
         <v>43364</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>81.431946590541571</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A471" s="5">
         <v>43371</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>81.288529988585708</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A472" s="5">
         <v>43378</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>81.594485406091565</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A473" s="5">
         <v>43385</v>
       </c>
@@ -21713,7 +21713,7 @@
         <v>77.808287114456647</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A474" s="5">
         <v>43392</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>78.372392415483063</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A475" s="5">
         <v>43399</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>74.127260997589389</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A476" s="5">
         <v>43406</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>78.353270201888961</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A477" s="5">
         <v>43413</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>78.104486165813995</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A478" s="5">
         <v>43420</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>76.259802493541144</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A479" s="5">
         <v>43427</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>72.908466188417179</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A480" s="5">
         <v>43434</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>76.781336097220375</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A481" s="5">
         <v>43441</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>74.984942573436356</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A482" s="5">
         <v>43448</v>
       </c>
@@ -22109,7 +22109,7 @@
         <v>72.995388455697054</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A483" s="5">
         <v>43455</v>
       </c>
@@ -22153,7 +22153,7 @@
         <v>65.790498301165442</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A484" s="5">
         <v>43462</v>
       </c>
@@ -22197,7 +22197,7 @@
         <v>65.83878844965426</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A485" s="5">
         <v>43469</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>68.716881299587797</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A486" s="5">
         <v>43476</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>69.267388992360324</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A487" s="5">
         <v>43483</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>70.493958763976295</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A488" s="5">
         <v>43490</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>69.267388992360324</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A489" s="5">
         <v>43497</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>73.323761465421015</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A490" s="5">
         <v>43504</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>72.243345695176629</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A491" s="5">
         <v>43511</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>75.885785265912077</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A492" s="5">
         <v>43518</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>76.579118267312126</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A493" s="5">
         <v>43525</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>78.122028326765744</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A494" s="5">
         <v>43532</v>
       </c>
@@ -22637,7 +22637,7 @@
         <v>77.155268226222034</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A495" s="5">
         <v>43539</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>78.268507129878444</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A496" s="5">
         <v>43546</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>78.590760496726347</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A497" s="5">
         <v>43553</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>78.903248610033401</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A498" s="5">
         <v>43560</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>80.553576458436325</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A499" s="5">
         <v>43567</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>79.020431652523555</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A500" s="5">
         <v>43574</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>79.225501976881304</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A501" s="5">
         <v>43581</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>78.600525750267181</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A502" s="5">
         <v>43588</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>75.651419180931782</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A503" s="5">
         <v>43595</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>75.619745772781016</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A504" s="5">
         <v>43602</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>74.977728599945223</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A505" s="5">
         <v>43609</v>
       </c>
@@ -23121,7 +23121,7 @@
         <v>73.189957703279418</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A506" s="5">
         <v>43616</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>69.900854340905326</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A507" s="5">
         <v>43623</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>73.664062692450472</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A508" s="5">
         <v>43630</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>73.436887385139343</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A509" s="5">
         <v>43637</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>76.735867934787834</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A510" s="5">
         <v>43644</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>75.688886083701789</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A511" s="5">
         <v>43651</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>75.195026719981954</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A512" s="5">
         <v>43658</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>76.676604811141445</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A513" s="5">
         <v>43665</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>74.069027370700724</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A514" s="5">
         <v>43672</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>73.8912379997616</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A515" s="5">
         <v>43679</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>70.8688186937962</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A516" s="5">
         <v>43686</v>
       </c>
@@ -23605,7 +23605,7 @@
         <v>69.969994651826113</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A517" s="5">
         <v>43693</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A518" s="5">
         <v>43700</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A519" s="5">
         <v>43707</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A520" s="5">
         <v>43714</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>70.930000000000007</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A521" s="5">
         <v>43721</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>72.64</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A522" s="5">
         <v>43728</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>72.08</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A523" s="5">
         <v>43735</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>71.48</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A524" s="5">
         <v>43742</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>68.97</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A525" s="5">
         <v>43749</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>68.98</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A526" s="5">
         <v>43756</v>
       </c>
@@ -24045,9 +24045,9 @@
         <v>67.61</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25"/>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25"/>
-    <row r="529" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.15"/>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.15"/>
+    <row r="529" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24055,150 +24055,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2216AC9-3A1B-49E3-9F78-5BACB03D4D53}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="56" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R529"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="14.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="14.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="2" customWidth="1"/>
     <col min="16" max="18" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="2" hidden="1"/>
+    <col min="19" max="16384" width="8.75" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -24239,7 +24120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -24283,7 +24164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>40086</v>
       </c>
@@ -24327,7 +24208,7 @@
         <v>49.968149127198423</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>40117</v>
       </c>
@@ -24371,7 +24252,7 @@
         <v>52.196724208516414</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>40147</v>
       </c>
@@ -24415,7 +24296,7 @@
         <v>54.991136719629289</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>40178</v>
       </c>
@@ -24459,7 +24340,7 @@
         <v>49.951320273231936</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>40209</v>
       </c>
@@ -24503,7 +24384,7 @@
         <v>47.19700198275897</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>40237</v>
       </c>
@@ -24547,7 +24428,7 @@
         <v>47.92517132372307</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>40268</v>
       </c>
@@ -24591,7 +24472,7 @@
         <v>49.385045773276488</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>40298</v>
       </c>
@@ -24635,7 +24516,7 @@
         <v>49.96752093244173</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>40329</v>
       </c>
@@ -24679,7 +24560,7 @@
         <v>44.880519060435141</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>40359</v>
       </c>
@@ -24723,7 +24604,7 @@
         <v>42.364062566639653</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>40390</v>
       </c>
@@ -24767,7 +24648,7 @@
         <v>44.301511371597243</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>40421</v>
       </c>
@@ -24811,7 +24692,7 @@
         <v>44.192367449080379</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>40451</v>
       </c>
@@ -24855,7 +24736,7 @@
         <v>46.196013951593244</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>40482</v>
       </c>
@@ -24899,7 +24780,7 @@
         <v>49.70987162391058</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>40512</v>
       </c>
@@ -24943,7 +24824,7 @@
         <v>52.332544585360111</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>40543</v>
       </c>
@@ -24987,7 +24868,7 @@
         <v>55.010863428429147</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>40574</v>
       </c>
@@ -25031,7 +24912,7 @@
         <v>60.698529286182492</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>40602</v>
       </c>
@@ -25075,7 +24956,7 @@
         <v>64.686479279153588</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>40633</v>
       </c>
@@ -25119,7 +25000,7 @@
         <v>63.627656982990665</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>40663</v>
       </c>
@@ -25163,7 +25044,7 @@
         <v>66.539418297438715</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>40694</v>
       </c>
@@ -25207,7 +25088,7 @@
         <v>63.486535792010145</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>40724</v>
       </c>
@@ -25251,7 +25132,7 @@
         <v>61.896900476264349</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>40755</v>
       </c>
@@ -25295,7 +25176,7 @@
         <v>60.687560690601295</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>40786</v>
       </c>
@@ -25339,7 +25220,7 @@
         <v>56.670742598559649</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>40816</v>
       </c>
@@ -25383,7 +25264,7 @@
         <v>55.606539245249763</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>40847</v>
       </c>
@@ -25427,7 +25308,7 @@
         <v>59.786791266164869</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>40877</v>
       </c>
@@ -25471,7 +25352,7 @@
         <v>61.952937754347928</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>40908</v>
       </c>
@@ -25515,7 +25396,7 @@
         <v>65.280097017137379</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>40939</v>
       </c>
@@ -25559,7 +25440,7 @@
         <v>64.494517746756529</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>40968</v>
       </c>
@@ -25603,7 +25484,7 @@
         <v>66.984842541697049</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>40999</v>
       </c>
@@ -25647,7 +25528,7 @@
         <v>67.162952527646084</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>41029</v>
       </c>
@@ -25691,7 +25572,7 @@
         <v>66.860939942776</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>41060</v>
       </c>
@@ -25735,7 +25616,7 @@
         <v>61.309860008026625</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>41090</v>
       </c>
@@ -25779,7 +25660,7 @@
         <v>66.721158856503095</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>41121</v>
       </c>
@@ -25823,7 +25704,7 @@
         <v>67.719208211841689</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>41152</v>
       </c>
@@ -25867,7 +25748,7 @@
         <v>68.512452598712173</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>41182</v>
       </c>
@@ -25911,7 +25792,7 @@
         <v>71.769344675283264</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>41213</v>
       </c>
@@ -25955,7 +25836,7 @@
         <v>71.549602559273652</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41243</v>
       </c>
@@ -25999,7 +25880,7 @@
         <v>69.604760827817657</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41274</v>
       </c>
@@ -26043,7 +25924,7 @@
         <v>68.3491269531157</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>41305</v>
       </c>
@@ -26087,7 +25968,7 @@
         <v>71.049924343984046</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>41333</v>
       </c>
@@ -26131,7 +26012,7 @@
         <v>71.170045834967496</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41364</v>
       </c>
@@ -26175,7 +26056,7 @@
         <v>71.615106981450822</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>41394</v>
       </c>
@@ -26219,7 +26100,7 @@
         <v>70.72498468848417</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>41425</v>
       </c>
@@ -26263,7 +26144,7 @@
         <v>72.398611274999794</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>41455</v>
       </c>
@@ -26307,7 +26188,7 @@
         <v>72.302581283256671</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>41486</v>
       </c>
@@ -26351,7 +26232,7 @@
         <v>75.023431049311711</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>41517</v>
       </c>
@@ -26395,7 +26276,7 @@
         <v>70.231871282812691</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>41547</v>
       </c>
@@ -26439,7 +26320,7 @@
         <v>69.329396571514508</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>41578</v>
       </c>
@@ -26483,7 +26364,7 @@
         <v>72.21409252369979</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>41608</v>
       </c>
@@ -26527,7 +26408,7 @@
         <v>75.836928055548739</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>41639</v>
       </c>
@@ -26571,7 +26452,7 @@
         <v>82.099883603140057</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>41670</v>
       </c>
@@ -26615,7 +26496,7 @@
         <v>74.76606000855125</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>41698</v>
       </c>
@@ -26659,7 +26540,7 @@
         <v>78.653512545572411</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>41729</v>
       </c>
@@ -26703,7 +26584,7 @@
         <v>79.805496057458342</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>41759</v>
       </c>
@@ -26747,7 +26628,7 @@
         <v>83.669951384564982</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>41790</v>
       </c>
@@ -26791,7 +26672,7 @@
         <v>82.691607775710509</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>41820</v>
       </c>
@@ -26835,7 +26716,7 @@
         <v>82.814991254934199</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>41851</v>
       </c>
@@ -26879,7 +26760,7 @@
         <v>81.383742895939491</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>41882</v>
       </c>
@@ -26923,7 +26804,7 @@
         <v>82.381385578272628</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>41912</v>
       </c>
@@ -26967,7 +26848,7 @@
         <v>77.900355053655147</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>41943</v>
       </c>
@@ -27011,7 +26892,7 @@
         <v>80.103597418809031</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>41973</v>
       </c>
@@ -27055,7 +26936,7 @@
         <v>75.534502380350276</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>42004</v>
       </c>
@@ -27099,7 +26980,7 @@
         <v>77.127951679516045</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>42035</v>
       </c>
@@ -27143,7 +27024,7 @@
         <v>72.931590436163248</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42063</v>
       </c>
@@ -27187,7 +27068,7 @@
         <v>74.42196154696974</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42094</v>
       </c>
@@ -27231,7 +27112,7 @@
         <v>71.446427959028995</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>42124</v>
       </c>
@@ -27275,7 +27156,7 @@
         <v>73.438522479768992</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>42155</v>
       </c>
@@ -27319,7 +27200,7 @@
         <v>72.206859555204872</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>42185</v>
       </c>
@@ -27363,7 +27244,7 @@
         <v>70.511862852031044</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>42216</v>
       </c>
@@ -27407,7 +27288,7 @@
         <v>67.130344429199255</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42247</v>
       </c>
@@ -27451,7 +27332,7 @@
         <v>64.362404776030999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42277</v>
       </c>
@@ -27495,7 +27376,7 @@
         <v>63.601073831710593</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42308</v>
       </c>
@@ -27539,7 +27420,7 @@
         <v>70.778114980978273</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>42338</v>
       </c>
@@ -27583,7 +27464,7 @@
         <v>70.463210066263926</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>42369</v>
       </c>
@@ -27627,7 +27508,7 @@
         <v>67.261905763718744</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>42400</v>
       </c>
@@ -27671,7 +27552,7 @@
         <v>67.175617238043671</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42429</v>
       </c>
@@ -27715,7 +27596,7 @@
         <v>69.787967876565119</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>42460</v>
       </c>
@@ -27759,7 +27640,7 @@
         <v>72.783234370581141</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42490</v>
       </c>
@@ -27803,7 +27684,7 @@
         <v>76.97138316017913</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42521</v>
       </c>
@@ -27847,7 +27728,7 @@
         <v>78.162651163147672</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>42551</v>
       </c>
@@ -27891,7 +27772,7 @@
         <v>82.306975062159765</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>42582</v>
       </c>
@@ -27935,7 +27816,7 @@
         <v>78.101188732441983</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42613</v>
       </c>
@@ -27979,7 +27860,7 @@
         <v>77.164410169283059</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>42643</v>
       </c>
@@ -28023,7 +27904,7 @@
         <v>77.288383286378533</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>42674</v>
       </c>
@@ -28067,7 +27948,7 @@
         <v>73.781715117106543</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42704</v>
       </c>
@@ -28111,7 +27992,7 @@
         <v>77.990619477864726</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>42735</v>
       </c>
@@ -28155,7 +28036,7 @@
         <v>80.634974960733913</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>42766</v>
       </c>
@@ -28199,7 +28080,7 @@
         <v>74.944250492532333</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>42794</v>
       </c>
@@ -28243,7 +28124,7 @@
         <v>73.312614371014419</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>42825</v>
       </c>
@@ -28287,7 +28168,7 @@
         <v>73.934671723646019</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>42855</v>
       </c>
@@ -28331,7 +28212,7 @@
         <v>73.61012006140345</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>42886</v>
       </c>
@@ -28375,7 +28256,7 @@
         <v>73.25868330193245</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>42916</v>
       </c>
@@ -28419,7 +28300,7 @@
         <v>73.467993825652258</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>42947</v>
       </c>
@@ -28463,7 +28344,7 @@
         <v>72.840062254492835</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>42978</v>
       </c>
@@ -28507,7 +28388,7 @@
         <v>70.13709492148871</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>43008</v>
       </c>
@@ -28551,7 +28432,7 @@
         <v>75.328691755058884</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>43039</v>
       </c>
@@ -28595,7 +28476,7 @@
         <v>76.587539128862616</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>43069</v>
       </c>
@@ -28639,7 +28520,7 @@
         <v>77.240699999698833</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>43100</v>
       </c>
@@ -28683,7 +28564,7 @@
         <v>77.56527972115272</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>43131</v>
       </c>
@@ -28727,7 +28608,7 @@
         <v>80.959456236927693</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>43159</v>
       </c>
@@ -28771,7 +28652,7 @@
         <v>70.957296140095139</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>43190</v>
       </c>
@@ -28815,7 +28696,7 @@
         <v>69.89865150531422</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>43220</v>
       </c>
@@ -28859,7 +28740,7 @@
         <v>72.84037199488246</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>43251</v>
       </c>
@@ -28903,7 +28784,7 @@
         <v>76.881442038667544</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>43281</v>
       </c>
@@ -28947,7 +28828,7 @@
         <v>78.291502952473735</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>43312</v>
       </c>
@@ -28991,7 +28872,7 @@
         <v>77.136956432444507</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>43343</v>
       </c>
@@ -29035,7 +28916,7 @@
         <v>76.651393192012662</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>43373</v>
       </c>
@@ -29079,7 +28960,7 @@
         <v>81.288529988585708</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>43404</v>
       </c>
@@ -29123,7 +29004,7 @@
         <v>76.182898958956827</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>43434</v>
       </c>
@@ -29167,7 +29048,7 @@
         <v>76.781336097220375</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>43465</v>
       </c>
@@ -29211,7 +29092,7 @@
         <v>65.858104509049781</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>43496</v>
       </c>
@@ -29255,7 +29136,7 @@
         <v>70.774041625211439</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>43524</v>
       </c>
@@ -29299,7 +29180,7 @@
         <v>77.174798733303717</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>43555</v>
       </c>
@@ -29343,7 +29224,7 @@
         <v>78.903248610033401</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>43585</v>
       </c>
@@ -29387,7 +29268,7 @@
         <v>78.395455425909432</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>43616</v>
       </c>
@@ -29431,7 +29312,7 @@
         <v>69.900854340905326</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>43646</v>
       </c>
@@ -29475,7 +29356,7 @@
         <v>75.688886083701789</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>43677</v>
       </c>
@@ -29519,7 +29400,7 @@
         <v>73.446764572413741</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>43708</v>
       </c>
@@ -29563,7 +29444,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>43738</v>
       </c>
@@ -29607,413 +29488,532 @@
         <v>70.61</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="335" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="336" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="337" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="338" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="339" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="340" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="341" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="342" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="343" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="344" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="345" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="346" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="347" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="348" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="349" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="350" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="351" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="352" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="353" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="354" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="355" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="356" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="357" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="358" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="359" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="360" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="361" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="362" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="363" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="364" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="365" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="366" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="367" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="368" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="369" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="370" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="371" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="372" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="373" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="374" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="375" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="376" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="377" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="378" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="379" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="380" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="381" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="382" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="383" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="384" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="385" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="386" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="387" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="388" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="389" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="390" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="391" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="392" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="393" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="394" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="395" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="396" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="397" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="398" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="399" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="400" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="401" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="402" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="403" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="404" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="405" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="406" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="407" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="408" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="409" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="410" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="411" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="412" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="413" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="414" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="415" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="416" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="417" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="418" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="419" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="420" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="421" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="422" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="423" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="424" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="425" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="426" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="427" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="428" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="429" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="430" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="431" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="432" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="433" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="434" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="435" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="436" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="437" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="438" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="439" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="440" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="441" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="442" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="443" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="444" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="445" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="446" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="447" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="448" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="449" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="450" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="451" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="452" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="453" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="454" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="455" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="456" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="457" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="458" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="459" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="460" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="461" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="462" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="463" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="464" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="465" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="466" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="467" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="468" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="469" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="470" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="471" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="472" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="473" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="474" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="475" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="476" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="477" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="478" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="479" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="480" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="481" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="482" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="483" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="484" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="485" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="486" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="487" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="488" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="489" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="490" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="491" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="492" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="493" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="494" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="495" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="496" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="497" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="498" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="499" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="500" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="501" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="502" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="503" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="504" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="505" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="506" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="507" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="508" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="509" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="510" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="511" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="512" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="513" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="514" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="515" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="516" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="517" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="518" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="519" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="520" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="521" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="522" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="523" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="524" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="525" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="526" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="527" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="528" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="529" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="336" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="337" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="338" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="339" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="340" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="341" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="342" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="343" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="344" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="345" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="346" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="347" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="348" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="349" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="350" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="351" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="352" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="353" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="354" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="355" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="356" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="357" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="358" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="359" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="360" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="361" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="362" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="363" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="364" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="365" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="366" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="367" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="368" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="369" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="370" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="371" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="372" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="373" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="374" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="375" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="376" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="377" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="378" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="379" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="380" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="381" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="382" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="383" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="384" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="385" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="386" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="387" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="388" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="389" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="390" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="391" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="392" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="393" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="394" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="395" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="396" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="397" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="398" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="399" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="400" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="401" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="402" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="403" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="404" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="405" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="406" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="407" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="408" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="409" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="410" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="411" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="412" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="413" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="414" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="415" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="416" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="417" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="418" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="419" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="420" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="421" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="422" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="423" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="424" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="425" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="426" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="427" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="428" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="429" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="430" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="431" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="432" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="433" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="434" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="435" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="436" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="437" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="438" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="439" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="440" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="441" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="442" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="443" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="444" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="445" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="446" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="447" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="448" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="449" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="450" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="451" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="452" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="453" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="454" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="455" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="456" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="457" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="458" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="459" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="460" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="461" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="462" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="463" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="464" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="465" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="466" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="467" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="468" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="469" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="470" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="471" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="472" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="473" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="474" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="475" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="476" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="477" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="478" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="479" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="480" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="482" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="483" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="484" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="485" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="486" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="487" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="488" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="489" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="490" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="491" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="492" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="493" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="494" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="495" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="496" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="497" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="498" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="499" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="500" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="501" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="502" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="503" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="504" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="505" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="506" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="507" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="508" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="509" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="510" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="511" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="512" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2216AC9-3A1B-49E3-9F78-5BACB03D4D53}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>